--- a/nr-update-tlsv/ig/ValueSet-TLSVCategory.xlsx
+++ b/nr-update-tlsv/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T13:18:38+00:00</t>
+    <t>2024-03-20T13:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
